--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>C1</t>
   </si>
@@ -26,6 +26,9 @@
     <t>C3</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>xx</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -44,6 +50,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>yy</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
     <t>Z</t>
   </si>
   <si>
+    <t>zz</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>C3_Target</t>
   </si>
   <si>
     <t>B1</t>
@@ -76,11 +91,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="mm\-dd\-yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,87 +113,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +147,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -209,30 +246,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,79 +276,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,108 +450,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,6 +461,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,21 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -505,30 +534,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,165 +564,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,67 +1036,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="14.4272727272727" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1109,68 +1123,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="14.4272727272727" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
